--- a/ステージ仕様書0705.xlsx
+++ b/ステージ仕様書0705.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>画面について：</t>
     <rPh sb="0" eb="2">
@@ -1040,6 +1040,56 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示がしなくても自動的に同じ指示か前の指示をプッシュする。</t>
+    <rPh sb="0" eb="2">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルは指示の順番で発動する。入力エラーしても最初に戻ることしない。（その時の状態ままに）</t>
+    <rPh sb="4" eb="6">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1085,13 +1135,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <name val="Noto Sans CJK JP Medium"/>
+      <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1128,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1136,7 +1184,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1419,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G91"/>
+  <dimension ref="B2:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
@@ -1612,213 +1659,220 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C49" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C50" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C54" s="2" t="s">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D55" s="2" t="s">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D56" s="2" t="s">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D57" s="2" t="s">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D58" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D58" s="6" t="s">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C60" s="2" t="s">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D61" s="2" t="s">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D62" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D62" s="2" t="s">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D63" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D63" s="2" t="s">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D64" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D64" s="2" t="s">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="D65" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D65" s="6" t="s">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="D66" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C67" s="2" t="s">
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D68" s="2" t="s">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D69" s="6" t="s">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="D70" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C71" s="2" t="s">
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C72" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D72" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.5">
       <c r="D73" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.5">
       <c r="D74" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="D75" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D75" s="6" t="s">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="D76" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C77" s="2" t="s">
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C78" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D78" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.5">
       <c r="D79" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="D80" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="D80" s="6" t="s">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D81" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="C82" s="2" t="s">
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="C83" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="D83" s="2" t="s">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D84" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="D84" s="2" t="s">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D85" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="D85" s="2" t="s">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D86" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="D86" s="6" t="s">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-    </row>
-    <row r="88" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B88" s="3" t="s">
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="89" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B89" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="C89" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="C90" s="2" t="s">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="C90" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="C91" s="2" t="s">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="C92" s="2" t="s">
         <v>58</v>
       </c>
     </row>
